--- a/2klasa/Excel/30.05.2023/wyszukaj.pionowo.xlsx
+++ b/2klasa/Excel/30.05.2023/wyszukaj.pionowo.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\OneDrive\Pulpit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krysteckimic\Desktop\Excel\30.05.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A31F68-9F8E-4B2A-9BB4-E7B801C76DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EEC96-4F55-421A-9EB4-26F78D4A209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ex-292" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -93,7 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -102,7 +91,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Akcent 6" xfId="1" builtinId="49"/>
@@ -412,19 +400,19 @@
   <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,313 +426,490 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>210991163</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3">
+        <f>VLOOKUP(B3,$F$3:$F$38,1,0)</f>
+        <v>210991163</v>
+      </c>
       <c r="F3" s="3">
         <v>210991163</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>VLOOKUP(F3,$B$3:$B$25,1,0)</f>
+        <v>210991163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>211037046</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4">
+        <f t="shared" ref="C4:C25" si="0">VLOOKUP(B4,$F$3:$F$38,1,0)</f>
+        <v>211037046</v>
+      </c>
       <c r="F4" s="3">
         <v>211037046</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" ref="G4:G38" si="1">VLOOKUP(F4,$B$3:$B$25,1,0)</f>
+        <v>211037046</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>211037072</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>211037072</v>
+      </c>
       <c r="F5" s="3">
         <v>211037072</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>211037072</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>211048633</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>211048633</v>
+      </c>
       <c r="F6" s="3">
         <v>211048633</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>211048633</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>211072761</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>211072761</v>
+      </c>
       <c r="F7" s="3">
         <v>211072761</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>211072761</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>211076924</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>211076924</v>
+      </c>
       <c r="F8" s="3">
         <v>211076924</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>211076924</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>211122376</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>211122376</v>
+      </c>
       <c r="F9" s="3">
         <v>211122376</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>211122376</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>211137172</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>211137172</v>
+      </c>
       <c r="F10" s="3">
         <v>211137172</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>211137172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>211141722</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>211141722</v>
+      </c>
       <c r="F11" s="3">
         <v>211141722</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>211141722</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>211166476</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>211166476</v>
+      </c>
       <c r="F12" s="3">
         <v>211166476</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>211166476</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>211189322</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>211189322</v>
+      </c>
       <c r="F13" s="3">
         <v>211189322</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>211189322</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>211227306</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F14" s="3">
         <v>955892416</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>210262533</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F15" s="3">
         <v>955892405</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>211194756</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F16" s="3">
         <v>955892394</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G16" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>211191326</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F17" s="3">
         <v>955892383</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>211191422</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F18" s="3">
         <v>955892372</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>211222550</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F19" s="3">
         <v>955892361</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>211227822</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F20" s="3">
         <v>955892350</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>211228216</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F21" s="3">
         <v>955892346</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G21" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>211238160</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F22" s="3">
         <v>955892335</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G22" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>210564130</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F23" s="3">
         <v>955892313</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G23" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>211071405</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F24" s="3">
         <v>955892302</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>211167471</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="F25" s="3">
         <v>955892324</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G25" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F26" s="3">
         <v>955892291</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G26" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F27" s="3">
         <v>955892280</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G27" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F28" s="3">
         <v>955892276</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G28" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F29" s="3">
         <v>955892265</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G29" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F30" s="3">
         <v>955892254</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G30" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F31" s="3">
         <v>955892243</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G31" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F32" s="3">
         <v>955892210</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G32" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="3">
         <v>955892206</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G33" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="3">
         <v>955892195</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G34" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="3">
         <v>955892184</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G35" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="3">
         <v>955892173</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G36" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="3">
         <v>955892232</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G37" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="3">
         <v>955892221</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:G38">
